--- a/docs/sha2_attack_stats.xlsx
+++ b/docs/sha2_attack_stats.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaaco\Documents\FortifyIQ\Code\ClearShaAttack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaaco\Documents\FortifyIQ\Github\sha2-attack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96594011-86DE-4F09-9E7A-B92B23FD2D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9695EF-5ECD-4B26-90F6-B158E9E7CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5F46EC8F-B1BA-49E3-B4D3-5A58024BD9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="lsb" sheetId="1" r:id="rId1"/>
-    <sheet name="res" sheetId="2" r:id="rId2"/>
+    <sheet name="chart" sheetId="3" r:id="rId2"/>
+    <sheet name="res" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t># of bits</t>
   </si>
@@ -46,6 +47,14 @@
   </si>
   <si>
     <t># of traces</t>
+  </si>
+  <si>
+    <t>32
+(SHA256)</t>
+  </si>
+  <si>
+    <t>64
+(SHA512)</t>
   </si>
 </sst>
 </file>
@@ -192,16 +201,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,24 +228,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -237,6 +278,1422 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Noise 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>8192</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16384</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32768</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>65536</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>131072</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>262144</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>524288</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1048576</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.53125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.890625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.921875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.4375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.21875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D64D-4EB9-BA5E-632B92A4AEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Noise 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>8192</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16384</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32768</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>65536</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>131072</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>262144</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>524288</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1048576</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1015625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.7890625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.234375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.203125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.53125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.53125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D64D-4EB9-BA5E-632B92A4AEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Noise 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>8192</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16384</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32768</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>65536</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>131072</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>262144</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>524288</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1048576</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.71875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D64D-4EB9-BA5E-632B92A4AEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Noise 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>8192</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16384</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32768</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>65536</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>131072</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>262144</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>524288</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1048576</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.34375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.15625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D64D-4EB9-BA5E-632B92A4AEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Noise 32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>8192</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16384</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32768</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>65536</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>131072</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>262144</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>524288</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1048576</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.90625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D64D-4EB9-BA5E-632B92A4AEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1578661744"/>
+        <c:axId val="1578662992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1578661744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t># of traces</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1578662992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1578662992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Success ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1578661744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7710A10A-50BA-483E-A47B-8575D19C4A70}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661797" cy="6290469"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F508CB1D-6970-EC2F-2199-640C097FADA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,375 +1996,375 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>4096</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>8192</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>16384</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>32768</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>65536</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>131072</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>262144</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>524288</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>1048576</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>3.57818603515625</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>7.76214599609375</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>23.7350463867187</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="9">
         <v>51.1138916015625</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>77.8167724609375</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>91.473388671875</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>96.173095703125</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="9">
         <v>98.876953125</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="10">
         <v>99.47509765625</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5">
+      <c r="A4" s="22"/>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>1.708984375</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="12">
         <v>3.4759521484375</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="12">
         <v>7.269287109375</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="12">
         <v>18.8018798828125</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="12">
         <v>48.8525390625</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="12">
         <v>75.01220703125</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="12">
         <v>88.00048828125</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="12">
         <v>96.25244140625</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="13">
         <v>95.95947265625</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>1.38092041015625</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
         <v>2.7252197265625</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="12">
         <v>5.548095703125</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="12">
         <v>13.0218505859375</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <v>36.785888671875</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="12">
         <v>68.1396484375</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="12">
         <v>86.5234375</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="13">
         <v>90.52734375</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>0.70037841796875</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>1.4617919921875</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="12">
         <v>2.9876708984375</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="12">
         <v>6.70166015625</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="12">
         <v>17.2607421875</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>40.13671875</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="13">
         <v>72.705078125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="3">
         <v>32</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>0.78125</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <v>1.708984375</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <v>3.411865234375</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="12">
         <v>6.4208984375</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="13">
         <v>18.24951171875</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="7">
         <v>64</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
         <v>0.732421875</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>1.6845703125</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>3.35693359375</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>64</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
         <v>0.873565673828125</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="12">
         <v>1.7509460449218699</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="12">
         <v>3.63922119140625</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="12">
         <v>9.07135009765625</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="12">
         <v>24.249267578125</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="12">
         <v>53.369140625</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="12">
         <v>72.9583740234375</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="12">
         <v>87.518310546875</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="13">
         <v>91.2109375</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>2.2621154785156201</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>5.1055908203125</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="12">
         <v>12.4588012695312</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <v>31.9915771484375</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="12">
         <v>56.6253662109375</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="12">
         <v>77.18505859375</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="13">
         <v>89.48974609375</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>1.16729736328125</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <v>2.17742919921875</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="12">
         <v>5.0933837890625</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="12">
         <v>11.6943359375</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12">
         <v>31.3446044921875</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="12">
         <v>59.185791015625</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="13">
         <v>80.11474609375</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>0.77667236328125</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>1.4801025390625</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <v>2.8350830078125</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="12">
         <v>8.184814453125</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="12">
         <v>17.767333984375</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="13">
         <v>41.937255859375</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
         <v>0.823974609375</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="17">
         <v>1.7120361328125</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="17">
         <v>2.8076171875</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="18">
         <v>7.6904296875</v>
       </c>
     </row>
@@ -917,6 +2374,11 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:K13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>65</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -925,230 +2387,378 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF6004-B687-424C-A5E3-2E0E488A3F68}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>4096</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>8192</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>16384</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>32768</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>65536</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>131072</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>262144</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>524288</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>1048576</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.8125</v>
+      </c>
+      <c r="F3" s="9">
+        <v>35.9375</v>
+      </c>
+      <c r="G3" s="9">
+        <v>69.53125</v>
+      </c>
+      <c r="H3" s="9">
+        <v>87.890625</v>
+      </c>
+      <c r="I3" s="9">
+        <v>94.921875</v>
+      </c>
+      <c r="J3" s="9">
+        <v>98.4375</v>
+      </c>
+      <c r="K3" s="10">
+        <v>99.21875</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5">
+      <c r="A4" s="22"/>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4.1015625</v>
+      </c>
+      <c r="G4" s="12">
+        <v>33.7890625</v>
+      </c>
+      <c r="H4" s="12">
+        <v>65.234375</v>
+      </c>
+      <c r="I4" s="12">
+        <v>83.203125</v>
+      </c>
+      <c r="J4" s="12">
+        <v>94.53125</v>
+      </c>
+      <c r="K4" s="13">
+        <v>94.53125</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H5" s="12">
+        <v>20.3125</v>
+      </c>
+      <c r="I5" s="12">
+        <v>56.25</v>
+      </c>
+      <c r="J5" s="12">
+        <v>81.25</v>
+      </c>
+      <c r="K5" s="13">
+        <v>86.71875</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2.34375</v>
+      </c>
+      <c r="J6" s="12">
+        <v>21.875</v>
+      </c>
+      <c r="K6" s="13">
+        <v>60.15625</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="3">
         <v>32</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>3.90625</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="7">
         <v>64</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>64</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.390625</v>
+      </c>
+      <c r="G9" s="12">
+        <v>9.375</v>
+      </c>
+      <c r="H9" s="12">
+        <v>39.0625</v>
+      </c>
+      <c r="I9" s="12">
+        <v>63.28125</v>
+      </c>
+      <c r="J9" s="12">
+        <v>82.8125</v>
+      </c>
+      <c r="K9" s="13">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.9765625</v>
+      </c>
+      <c r="H10" s="12">
+        <v>14.453125</v>
+      </c>
+      <c r="I10" s="12">
+        <v>42.96875</v>
+      </c>
+      <c r="J10" s="12">
+        <v>70.3125</v>
+      </c>
+      <c r="K10" s="13">
+        <v>85.9375</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>14.84375</v>
+      </c>
+      <c r="J11" s="12">
+        <v>47.65625</v>
+      </c>
+      <c r="K11" s="13">
+        <v>73.4375</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>4.6875</v>
+      </c>
+      <c r="K12" s="13">
+        <v>22.65625</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1156,6 +2766,11 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:K13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/sha2_attack_stats.xlsx
+++ b/docs/sha2_attack_stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaaco\Documents\FortifyIQ\Github\sha2-attack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9695EF-5ECD-4B26-90F6-B158E9E7CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CAB68-E0DD-495E-94A3-AB77E10BD3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5F46EC8F-B1BA-49E3-B4D3-5A58024BD9E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5F46EC8F-B1BA-49E3-B4D3-5A58024BD9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="lsb" sheetId="1" r:id="rId1"/>
-    <sheet name="chart" sheetId="3" r:id="rId2"/>
-    <sheet name="res" sheetId="2" r:id="rId3"/>
+    <sheet name="res" sheetId="2" r:id="rId2"/>
+    <sheet name="chart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -214,7 +214,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -242,6 +241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,28 +368,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.765625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8125</c:v>
+                  <c:v>6.15234375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.9375</c:v>
+                  <c:v>40.0390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.53125</c:v>
+                  <c:v>66.40625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.890625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.921875</c:v>
+                  <c:v>91.9921875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.4375</c:v>
+                  <c:v>96.38671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.21875</c:v>
+                  <c:v>98.33984375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,22 +474,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1015625</c:v>
+                  <c:v>4.8828125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.7890625</c:v>
+                  <c:v>33.69140625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.234375</c:v>
+                  <c:v>63.28125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.203125</c:v>
+                  <c:v>82.6171875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.53125</c:v>
+                  <c:v>91.11328125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.53125</c:v>
+                  <c:v>96.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,9 +567,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -576,19 +574,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78125</c:v>
+                  <c:v>0.5859375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.3125</c:v>
+                  <c:v>21.09375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.25</c:v>
+                  <c:v>53.22265625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.25</c:v>
+                  <c:v>76.3671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.71875</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,26 +664,20 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.765625E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.34375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.875</c:v>
+                  <c:v>28.80859375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.15625</c:v>
+                  <c:v>61.1328125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,12 +753,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
@@ -774,7 +760,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.90625</c:v>
+                  <c:v>2.5390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,7 +1982,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2004,17 +1990,17 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -2052,13 +2038,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>3.57818603515625</v>
       </c>
       <c r="D3" s="9">
@@ -2087,285 +2073,255 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
-        <v>1.708984375</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3.4759521484375</v>
-      </c>
-      <c r="E4" s="12">
-        <v>7.269287109375</v>
-      </c>
-      <c r="F4" s="12">
-        <v>18.8018798828125</v>
-      </c>
-      <c r="G4" s="12">
-        <v>48.8525390625</v>
-      </c>
-      <c r="H4" s="12">
-        <v>75.01220703125</v>
-      </c>
-      <c r="I4" s="12">
-        <v>88.00048828125</v>
-      </c>
-      <c r="J4" s="12">
-        <v>96.25244140625</v>
-      </c>
-      <c r="K4" s="13">
-        <v>95.95947265625</v>
+      <c r="C4" s="11"/>
+      <c r="D4" s="25">
+        <v>3.4393310546875</v>
+      </c>
+      <c r="E4" s="25">
+        <v>7.36236572265625</v>
+      </c>
+      <c r="F4" s="25">
+        <v>20.2743530273437</v>
+      </c>
+      <c r="G4" s="25">
+        <v>48.4344482421875</v>
+      </c>
+      <c r="H4" s="25">
+        <v>72.9949951171875</v>
+      </c>
+      <c r="I4" s="25">
+        <v>87.532043457031193</v>
+      </c>
+      <c r="J4" s="25">
+        <v>93.7225341796875</v>
+      </c>
+      <c r="K4" s="12">
+        <v>97.773742675781193</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>1.38092041015625</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2.7252197265625</v>
-      </c>
-      <c r="F5" s="12">
-        <v>5.548095703125</v>
-      </c>
-      <c r="G5" s="12">
-        <v>13.0218505859375</v>
-      </c>
-      <c r="H5" s="12">
-        <v>36.785888671875</v>
-      </c>
-      <c r="I5" s="12">
-        <v>68.1396484375</v>
-      </c>
-      <c r="J5" s="12">
-        <v>86.5234375</v>
-      </c>
-      <c r="K5" s="13">
-        <v>90.52734375</v>
+      <c r="C5" s="11"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25">
+        <v>2.72674560546875</v>
+      </c>
+      <c r="F5" s="25">
+        <v>5.59539794921875</v>
+      </c>
+      <c r="G5" s="25">
+        <v>12.4481201171875</v>
+      </c>
+      <c r="H5" s="25">
+        <v>37.200927734375</v>
+      </c>
+      <c r="I5" s="25">
+        <v>65.238952636718693</v>
+      </c>
+      <c r="J5" s="25">
+        <v>83.033752441406193</v>
+      </c>
+      <c r="K5" s="12">
+        <v>92.1905517578125</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>0.70037841796875</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1.4617919921875</v>
-      </c>
-      <c r="G6" s="12">
-        <v>2.9876708984375</v>
-      </c>
-      <c r="H6" s="12">
-        <v>6.70166015625</v>
-      </c>
-      <c r="I6" s="12">
-        <v>17.2607421875</v>
-      </c>
-      <c r="J6" s="12">
-        <v>40.13671875</v>
-      </c>
-      <c r="K6" s="13">
-        <v>72.705078125</v>
+      <c r="C6" s="11"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
+        <v>3.06396484375</v>
+      </c>
+      <c r="H6" s="25">
+        <v>6.585693359375</v>
+      </c>
+      <c r="I6" s="25">
+        <v>16.3375854492187</v>
+      </c>
+      <c r="J6" s="25">
+        <v>45.0119018554687</v>
+      </c>
+      <c r="K6" s="12">
+        <v>70.9197998046875</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3">
         <v>32</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
-        <v>0.78125</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1.708984375</v>
-      </c>
-      <c r="I7" s="12">
-        <v>3.411865234375</v>
-      </c>
-      <c r="J7" s="12">
-        <v>6.4208984375</v>
-      </c>
-      <c r="K7" s="13">
-        <v>18.24951171875</v>
+      <c r="C7" s="11"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
+        <v>3.33099365234375</v>
+      </c>
+      <c r="J7" s="25">
+        <v>6.866455078125</v>
+      </c>
+      <c r="K7" s="12">
+        <v>16.6427612304687</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7">
         <v>64</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
-        <v>0.732421875</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1.6845703125</v>
-      </c>
-      <c r="K8" s="16">
-        <v>3.35693359375</v>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15">
+        <v>3.28369140625</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="12">
-        <v>0.873565673828125</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.7509460449218699</v>
-      </c>
-      <c r="E9" s="12">
-        <v>3.63922119140625</v>
-      </c>
-      <c r="F9" s="12">
-        <v>9.07135009765625</v>
-      </c>
-      <c r="G9" s="12">
-        <v>24.249267578125</v>
-      </c>
-      <c r="H9" s="12">
-        <v>53.369140625</v>
-      </c>
-      <c r="I9" s="12">
-        <v>72.9583740234375</v>
-      </c>
-      <c r="J9" s="12">
-        <v>87.518310546875</v>
-      </c>
-      <c r="K9" s="13">
-        <v>91.2109375</v>
+      <c r="C9" s="11"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
+        <v>3.59344482421875</v>
+      </c>
+      <c r="F9" s="25">
+        <v>9.02862548828125</v>
+      </c>
+      <c r="G9" s="25">
+        <v>24.6826171875</v>
+      </c>
+      <c r="H9" s="25">
+        <v>53.771209716796797</v>
+      </c>
+      <c r="I9" s="25">
+        <v>74.427795410156193</v>
+      </c>
+      <c r="J9" s="25">
+        <v>86.533355712890597</v>
+      </c>
+      <c r="K9" s="12">
+        <v>93.013000488281193</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>2.2621154785156201</v>
-      </c>
-      <c r="F10" s="12">
-        <v>5.1055908203125</v>
-      </c>
-      <c r="G10" s="12">
-        <v>12.4588012695312</v>
-      </c>
-      <c r="H10" s="12">
-        <v>31.9915771484375</v>
-      </c>
-      <c r="I10" s="12">
-        <v>56.6253662109375</v>
-      </c>
-      <c r="J10" s="12">
-        <v>77.18505859375</v>
-      </c>
-      <c r="K10" s="13">
-        <v>89.48974609375</v>
+      <c r="C10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>2.33917236328125</v>
+      </c>
+      <c r="F10" s="25">
+        <v>5.2009582519531197</v>
+      </c>
+      <c r="G10" s="25">
+        <v>13.7718200683593</v>
+      </c>
+      <c r="H10" s="25">
+        <v>35.286712646484297</v>
+      </c>
+      <c r="I10" s="25">
+        <v>59.9166870117187</v>
+      </c>
+      <c r="J10" s="25">
+        <v>78.954315185546804</v>
+      </c>
+      <c r="K10" s="12">
+        <v>89.262390136718693</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>1.16729736328125</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2.17742919921875</v>
-      </c>
-      <c r="G11" s="12">
-        <v>5.0933837890625</v>
-      </c>
-      <c r="H11" s="12">
-        <v>11.6943359375</v>
-      </c>
-      <c r="I11" s="12">
-        <v>31.3446044921875</v>
-      </c>
-      <c r="J11" s="12">
-        <v>59.185791015625</v>
-      </c>
-      <c r="K11" s="13">
-        <v>80.11474609375</v>
+      <c r="C11" s="11"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25">
+        <v>2.33001708984375</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4.83245849609375</v>
+      </c>
+      <c r="H11" s="25">
+        <v>13.0393981933593</v>
+      </c>
+      <c r="I11" s="25">
+        <v>32.8277587890625</v>
+      </c>
+      <c r="J11" s="25">
+        <v>59.343719482421797</v>
+      </c>
+      <c r="K11" s="12">
+        <v>78.411865234375</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>0.77667236328125</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1.4801025390625</v>
-      </c>
-      <c r="H12" s="12">
-        <v>2.8350830078125</v>
-      </c>
-      <c r="I12" s="12">
-        <v>8.184814453125</v>
-      </c>
-      <c r="J12" s="12">
-        <v>17.767333984375</v>
-      </c>
-      <c r="K12" s="13">
-        <v>41.937255859375</v>
+      <c r="C12" s="11"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25">
+        <v>3.0891418457031201</v>
+      </c>
+      <c r="I12" s="25">
+        <v>6.9831848144531197</v>
+      </c>
+      <c r="J12" s="25">
+        <v>19.7921752929687</v>
+      </c>
+      <c r="K12" s="12">
+        <v>45.351409912109297</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
-        <v>0.823974609375</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1.7120361328125</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2.8076171875</v>
-      </c>
-      <c r="K13" s="18">
-        <v>7.6904296875</v>
+      <c r="C13" s="26"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
+        <v>3.1745910644531201</v>
+      </c>
+      <c r="K13" s="17">
+        <v>7.6423645019531197</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2344,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2396,17 +2352,17 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -2444,7 +2400,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -2454,309 +2410,279 @@
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <v>0</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="E3" s="9">
-        <v>7.8125</v>
+        <v>6.15234375</v>
       </c>
       <c r="F3" s="9">
-        <v>35.9375</v>
+        <v>40.0390625</v>
       </c>
       <c r="G3" s="9">
-        <v>69.53125</v>
+        <v>66.40625</v>
       </c>
       <c r="H3" s="9">
-        <v>87.890625</v>
+        <v>87.5</v>
       </c>
       <c r="I3" s="9">
-        <v>94.921875</v>
+        <v>91.9921875</v>
       </c>
       <c r="J3" s="9">
-        <v>98.4375</v>
+        <v>96.38671875</v>
       </c>
       <c r="K3" s="10">
-        <v>99.21875</v>
+        <v>98.33984375</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="11"/>
+      <c r="D4" s="25">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4.1015625</v>
-      </c>
-      <c r="G4" s="12">
-        <v>33.7890625</v>
-      </c>
-      <c r="H4" s="12">
-        <v>65.234375</v>
-      </c>
-      <c r="I4" s="12">
-        <v>83.203125</v>
-      </c>
-      <c r="J4" s="12">
-        <v>94.53125</v>
-      </c>
-      <c r="K4" s="13">
-        <v>94.53125</v>
+      <c r="F4" s="25">
+        <v>4.8828125</v>
+      </c>
+      <c r="G4" s="25">
+        <v>33.69140625</v>
+      </c>
+      <c r="H4" s="25">
+        <v>63.28125</v>
+      </c>
+      <c r="I4" s="25">
+        <v>82.6171875</v>
+      </c>
+      <c r="J4" s="25">
+        <v>91.11328125</v>
+      </c>
+      <c r="K4" s="12">
+        <v>96.875</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3">
         <v>8</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="25">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.78125</v>
-      </c>
-      <c r="H5" s="12">
-        <v>20.3125</v>
-      </c>
-      <c r="I5" s="12">
-        <v>56.25</v>
-      </c>
-      <c r="J5" s="12">
-        <v>81.25</v>
-      </c>
-      <c r="K5" s="13">
-        <v>86.71875</v>
+      <c r="G5" s="25">
+        <v>0.5859375</v>
+      </c>
+      <c r="H5" s="25">
+        <v>21.09375</v>
+      </c>
+      <c r="I5" s="25">
+        <v>53.22265625</v>
+      </c>
+      <c r="J5" s="25">
+        <v>76.3671875</v>
+      </c>
+      <c r="K5" s="12">
+        <v>89.0625</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3">
         <v>16</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
         <v>0</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="25">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="I6" s="25">
         <v>2.34375</v>
       </c>
-      <c r="J6" s="12">
-        <v>21.875</v>
-      </c>
-      <c r="K6" s="13">
-        <v>60.15625</v>
+      <c r="J6" s="25">
+        <v>28.80859375</v>
+      </c>
+      <c r="K6" s="12">
+        <v>61.1328125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3">
         <v>32</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
         <v>0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="J7" s="25">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>3.90625</v>
+      <c r="K7" s="12">
+        <v>2.5390625</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7">
         <v>64</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
         <v>0</v>
       </c>
-      <c r="D9" s="12">
+      <c r="F9" s="25">
         <v>0</v>
       </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.390625</v>
-      </c>
-      <c r="G9" s="12">
-        <v>9.375</v>
-      </c>
-      <c r="H9" s="12">
-        <v>39.0625</v>
-      </c>
-      <c r="I9" s="12">
-        <v>63.28125</v>
-      </c>
-      <c r="J9" s="12">
-        <v>82.8125</v>
-      </c>
-      <c r="K9" s="13">
-        <v>87.5</v>
+      <c r="G9" s="25">
+        <v>8.88671875</v>
+      </c>
+      <c r="H9" s="25">
+        <v>39.6484375</v>
+      </c>
+      <c r="I9" s="25">
+        <v>66.015625</v>
+      </c>
+      <c r="J9" s="25">
+        <v>81.93359375</v>
+      </c>
+      <c r="K9" s="12">
+        <v>90.4296875</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="C10" s="11"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="25">
         <v>0</v>
       </c>
-      <c r="G10" s="12">
-        <v>0.9765625</v>
-      </c>
-      <c r="H10" s="12">
-        <v>14.453125</v>
-      </c>
-      <c r="I10" s="12">
-        <v>42.96875</v>
-      </c>
-      <c r="J10" s="12">
-        <v>70.3125</v>
-      </c>
-      <c r="K10" s="13">
-        <v>85.9375</v>
+      <c r="G10" s="25">
+        <v>1.171875</v>
+      </c>
+      <c r="H10" s="25">
+        <v>19.921875</v>
+      </c>
+      <c r="I10" s="25">
+        <v>47.8515625</v>
+      </c>
+      <c r="J10" s="25">
+        <v>71.875</v>
+      </c>
+      <c r="K10" s="12">
+        <v>85.3515625</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="C11" s="11"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="25">
         <v>0</v>
       </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>14.84375</v>
-      </c>
-      <c r="J11" s="12">
-        <v>47.65625</v>
-      </c>
-      <c r="K11" s="13">
-        <v>73.4375</v>
+      <c r="H11" s="25">
+        <v>0.68359375</v>
+      </c>
+      <c r="I11" s="25">
+        <v>15.625</v>
+      </c>
+      <c r="J11" s="25">
+        <v>46.38671875</v>
+      </c>
+      <c r="K11" s="12">
+        <v>70.80078125</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="C12" s="11"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25">
         <v>0</v>
       </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="25">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="J12" s="25">
         <v>4.6875</v>
       </c>
-      <c r="K12" s="13">
-        <v>22.65625</v>
+      <c r="K12" s="12">
+        <v>29.8828125</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
+      <c r="C13" s="26"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>0</v>
       </c>
     </row>

--- a/docs/sha2_attack_stats.xlsx
+++ b/docs/sha2_attack_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaaco\Documents\FortifyIQ\Github\sha2-attack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CAB68-E0DD-495E-94A3-AB77E10BD3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4831B-EE60-42D1-BFE2-4498CB269E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5F46EC8F-B1BA-49E3-B4D3-5A58024BD9E5}"/>
   </bookViews>
@@ -220,6 +220,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,8 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +799,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -812,8 +812,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t># of traces</a:t>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t># of simulated SHA256 traces</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -831,7 +831,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -920,7 +920,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -933,9 +933,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Success ratio</a:t>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>Success rate</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800" baseline="0"/>
+                  <a:t> (in %)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -952,7 +957,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1990,17 +1995,17 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -2038,7 +2043,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -2073,30 +2078,30 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="25">
+      <c r="D4" s="18">
         <v>3.4393310546875</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="18">
         <v>7.36236572265625</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>20.2743530273437</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <v>48.4344482421875</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="18">
         <v>72.9949951171875</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="18">
         <v>87.532043457031193</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="18">
         <v>93.7225341796875</v>
       </c>
       <c r="K4" s="12">
@@ -2104,28 +2109,28 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3">
         <v>8</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>2.72674560546875</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <v>5.59539794921875</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="18">
         <v>12.4481201171875</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="18">
         <v>37.200927734375</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="18">
         <v>65.238952636718693</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="18">
         <v>83.033752441406193</v>
       </c>
       <c r="K5" s="12">
@@ -2133,24 +2138,24 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>16</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
         <v>3.06396484375</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="18">
         <v>6.585693359375</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="18">
         <v>16.3375854492187</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="18">
         <v>45.0119018554687</v>
       </c>
       <c r="K6" s="12">
@@ -2158,20 +2163,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3">
         <v>32</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
         <v>3.33099365234375</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="18">
         <v>6.866455078125</v>
       </c>
       <c r="K7" s="12">
@@ -2179,7 +2184,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7">
         <v>64</v>
       </c>
@@ -2196,30 +2201,30 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>3.59344482421875</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="18">
         <v>9.02862548828125</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="18">
         <v>24.6826171875</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="18">
         <v>53.771209716796797</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="18">
         <v>74.427795410156193</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="18">
         <v>86.533355712890597</v>
       </c>
       <c r="K9" s="12">
@@ -2227,28 +2232,28 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
         <v>2.33917236328125</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="18">
         <v>5.2009582519531197</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="18">
         <v>13.7718200683593</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="18">
         <v>35.286712646484297</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="18">
         <v>59.9166870117187</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="18">
         <v>78.954315185546804</v>
       </c>
       <c r="K10" s="12">
@@ -2256,26 +2261,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18">
         <v>2.33001708984375</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="18">
         <v>4.83245849609375</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="18">
         <v>13.0393981933593</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="18">
         <v>32.8277587890625</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="18">
         <v>59.343719482421797</v>
       </c>
       <c r="K11" s="12">
@@ -2283,22 +2288,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3">
         <v>16</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
         <v>3.0891418457031201</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="18">
         <v>6.9831848144531197</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="18">
         <v>19.7921752929687</v>
       </c>
       <c r="K12" s="12">
@@ -2306,11 +2311,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -2352,17 +2357,17 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -2400,7 +2405,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -2435,30 +2440,30 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="25">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>4.8828125</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <v>33.69140625</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="18">
         <v>63.28125</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="18">
         <v>82.6171875</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="18">
         <v>91.11328125</v>
       </c>
       <c r="K4" s="12">
@@ -2466,28 +2471,28 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3">
         <v>8</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="18">
         <v>0.5859375</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="18">
         <v>21.09375</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="18">
         <v>53.22265625</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="18">
         <v>76.3671875</v>
       </c>
       <c r="K5" s="12">
@@ -2495,24 +2500,24 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>16</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="18">
         <v>9.765625E-2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="18">
         <v>2.34375</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="18">
         <v>28.80859375</v>
       </c>
       <c r="K6" s="12">
@@ -2520,20 +2525,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3">
         <v>32</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="18">
         <v>0</v>
       </c>
       <c r="K7" s="12">
@@ -2541,7 +2546,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7">
         <v>64</v>
       </c>
@@ -2558,30 +2563,30 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="18">
         <v>0</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="18">
         <v>8.88671875</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="18">
         <v>39.6484375</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="18">
         <v>66.015625</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="18">
         <v>81.93359375</v>
       </c>
       <c r="K9" s="12">
@@ -2589,28 +2594,28 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="18">
         <v>0</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="18">
         <v>1.171875</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="18">
         <v>19.921875</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="18">
         <v>47.8515625</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="18">
         <v>71.875</v>
       </c>
       <c r="K10" s="12">
@@ -2618,26 +2623,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="18">
         <v>0.68359375</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="18">
         <v>15.625</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="18">
         <v>46.38671875</v>
       </c>
       <c r="K11" s="12">
@@ -2645,22 +2650,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3">
         <v>16</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="18">
         <v>9.765625E-2</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="18">
         <v>4.6875</v>
       </c>
       <c r="K12" s="12">
@@ -2668,11 +2673,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
